--- a/unity_2019_1/Assets/StreamingAssets/excel.xlsx
+++ b/unity_2019_1/Assets/StreamingAssets/excel.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="json_test_1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="json_test_2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="enum_item_type_1" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="enum_item_type_2" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="test_json_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="test_json_2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="test_enum_1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="test_enum_2" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="test_se_header" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="test_se_list" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="91">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -47,22 +49,22 @@
     <t xml:space="preserve">[param_name]</t>
   </si>
   <si>
-    <t xml:space="preserve">command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key_3</t>
+    <t xml:space="preserve">convert_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert_output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert_sheet_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert_sheet_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert_sheet_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert_sheet_3</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
@@ -71,28 +73,40 @@
     <t xml:space="preserve">&lt;json&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">StreamingAssets/jsonsheet.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">json_test_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">json_test_2</t>
+    <t xml:space="preserve">Data/ConvertFromExcel/excel_to_json.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_json_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_json_2</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;enum&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">StreamingAssets/jsonsheet.cs.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum_item_type_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum_item_type_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テストＪＳＯＮ</t>
+    <t xml:space="preserve">Data/ConvertFromExcel/excel_to_enum.cs.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_enum_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_enum_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/ConvertFromExcel/excel_to_se_enum.cs.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_se_header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_se_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;se&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/ConvertFromExcel/excel_to_se_prefab.prefab</t>
   </si>
   <si>
     <t xml:space="preserve">int</t>
@@ -170,10 +184,13 @@
     <t xml:space="preserve">item_5</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
+    <t xml:space="preserve">enum_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum_comment</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;namespace&gt;</t>
@@ -206,7 +223,10 @@
     <t xml:space="preserve">すんごいアイテム</t>
   </si>
   <si>
-    <t xml:space="preserve">連結</t>
+    <t xml:space="preserve">enum_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連結なので記述不要</t>
   </si>
   <si>
     <t xml:space="preserve">AddType1</t>
@@ -219,6 +239,117 @@
   </si>
   <si>
     <t xml:space="preserve">AddType3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game.Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自動生成。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">効果音１。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Se/water-drop3_1.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">効果音２。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Data/Se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/water-drop3_2.mp3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Se3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">効果音３。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Data/Se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/water-drop3_3.mp3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Se4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">効果音４。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Data/Se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/water-drop3_4.mp3</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -619,18 +750,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:J12"/>
+  <dimension ref="C6:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="11" style="1" width="10.96"/>
@@ -751,6 +882,44 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -775,8 +944,386 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>99999</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>999999</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>99999999</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:Q14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,11 +1352,9 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E6" s="0"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -837,34 +1382,34 @@
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>5</v>
@@ -875,87 +1420,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,43 +1508,43 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,85 +1552,85 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,43 +1638,43 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,392 +1683,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E6:P6"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,標準"Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C6:Q14"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.96"/>
-  </cols>
-  <sheetData>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>99999</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>999999</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>300</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>99999999</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F6:Q6"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1541,17 +1700,17 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="8" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="10.96"/>
@@ -1590,13 +1749,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,10 +1769,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -1622,13 +1781,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,13 +1801,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,13 +1815,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,13 +1829,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,17 +1861,17 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="8" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="10.96"/>
@@ -1751,13 +1910,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,28 +1927,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,13 +1962,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,13 +1976,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,17 +1990,408 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:J12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="11" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:J17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="11" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/unity_2019_1/Assets/StreamingAssets/excel.xlsx
+++ b/unity_2019_1/Assets/StreamingAssets/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,8 +13,10 @@
     <sheet name="test_json_2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="test_enum_1" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="test_enum_2" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="test_se_header" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="test_se_list" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="se_header" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="se_list" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="data_list" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="assetbundle_list" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="108">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -34,9 +36,6 @@
     <t xml:space="preserve">convert</t>
   </si>
   <si>
-    <t xml:space="preserve">コンバート出力先</t>
-  </si>
-  <si>
     <t xml:space="preserve">[param_type]</t>
   </si>
   <si>
@@ -73,7 +72,7 @@
     <t xml:space="preserve">&lt;json&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Data/ConvertFromExcel/excel_to_json.json</t>
+    <t xml:space="preserve">Data/ConvertFromExcel/test_json.json</t>
   </si>
   <si>
     <t xml:space="preserve">test_json_1</t>
@@ -85,7 +84,7 @@
     <t xml:space="preserve">&lt;enum&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Data/ConvertFromExcel/excel_to_enum.cs.txt</t>
+    <t xml:space="preserve">Data/ConvertFromExcel/test_enum.cs.txt</t>
   </si>
   <si>
     <t xml:space="preserve">test_enum_1</t>
@@ -97,10 +96,10 @@
     <t xml:space="preserve">Data/ConvertFromExcel/excel_to_se_enum.cs.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">test_se_header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_se_list</t>
+    <t xml:space="preserve">se_header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_list</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;se&gt;</t>
@@ -109,6 +108,24 @@
     <t xml:space="preserve">Data/ConvertFromExcel/excel_to_se_prefab.prefab</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;data&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/ConvertFromExcel/data.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;assetbundle&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/ConvertFromExcel/AssetBundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assetbundle_list</t>
+  </si>
+  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
@@ -221,9 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve">すんごいアイテム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum_text</t>
   </si>
   <si>
     <t xml:space="preserve">連結なので記述不要</t>
@@ -351,6 +365,79 @@
       <t xml:space="preserve">/water-drop3_4.mp3</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">data_command</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_id</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">data_packname</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_path</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;assetbundleitem&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se.pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assets/Data/ConvertFromExcel/excel_to_se_prefab.prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;resourcesitem&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texture/button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assetbundle_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assetbundle_json</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
@@ -444,6 +531,13 @@
       <name val="MS UI Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -624,7 +718,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,6 +748,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -750,22 +856,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:J14"/>
+  <dimension ref="C6:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="11" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,9 +881,7 @@
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E6" s="0"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -786,51 +890,51 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,89 +948,120 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E6:I6"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -944,7 +1079,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -974,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -992,316 +1127,316 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1457,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1352,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="3"/>
@@ -1370,316 +1505,316 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1700,8 +1835,8 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1710,52 +1845,49 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="8" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,28 +1898,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,49 +1930,49 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1861,20 +1993,19 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="8" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,41 +2013,39 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
+        <v>20</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,28 +2056,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,49 +2088,49 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2022,8 +2151,8 @@
   </sheetPr>
   <dimension ref="C6:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2036,7 +2165,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="11" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="10.96"/>
   </cols>
@@ -2046,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -2057,51 +2186,51 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,13 +2244,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2130,16 +2259,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2147,7 +2276,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2168,14 +2297,14 @@
   </sheetPr>
   <dimension ref="C6:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.62"/>
@@ -2192,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -2203,51 +2332,51 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,13 +2390,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2276,13 +2405,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
@@ -2300,22 +2429,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -2323,22 +2452,22 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0.8</v>
@@ -2346,22 +2475,22 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>0.6</v>
@@ -2369,22 +2498,22 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>0.4</v>
@@ -2392,7 +2521,272 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:H15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="43.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="9" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:F16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="7" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/unity_2019_1/Assets/StreamingAssets/excel.xlsx
+++ b/unity_2019_1/Assets/StreamingAssets/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="se_list" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="data_list" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="assetbundle_list" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="117">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -437,6 +438,67 @@
   </si>
   <si>
     <t xml:space="preserve">assetbundle_json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A案</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTID_COMMON_GOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTID_COMMON_GET</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;&lt;0&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">&lt;&lt;TEXTID_COMMON_GOLD&gt;&gt;獲得しました。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B案</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;&lt;0&gt;&gt;&lt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">TEXTID_COMMON_GOLD&gt;&gt;獲得しました。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -858,8 +920,8 @@
   </sheetPr>
   <dimension ref="C6:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1058,6 +1120,137 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:E15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1458,7 +1651,7 @@
   <dimension ref="C6:Q14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
